--- a/exampleProblems/ch9_092/ch9_092.xlsx
+++ b/exampleProblems/ch9_092/ch9_092.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_092/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="370" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAE25DC1-B224-F846-9E96-B59102814A79}"/>
+  <xr:revisionPtr revIDLastSave="372" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64521164-4BBA-4314-8239-11F0CEF2246E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18900" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -164,13 +164,19 @@
   </si>
   <si>
     <t>G (s)</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>COc1cc(/C=C/C=O)ccc1O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,25 +599,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -627,12 +639,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -659,7 +671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -688,7 +700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -717,7 +729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -746,7 +758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -775,7 +787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -804,7 +816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -833,7 +845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -862,7 +874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -873,7 +885,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -884,7 +896,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -909,9 +921,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -944,7 +956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -976,7 +988,7 @@
       <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1008,7 +1020,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1040,7 +1052,7 @@
       <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1072,7 +1084,7 @@
       <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1103,7 +1115,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1135,7 +1147,7 @@
       <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1167,7 +1179,7 @@
       <c r="K8" s="6"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1181,7 +1193,7 @@
       <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1195,7 +1207,7 @@
       <c r="K10" s="6"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1209,27 +1221,27 @@
       <c r="K11" s="9"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J15" s="1"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="10:10">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="10:10">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J18" s="1"/>
     </row>
   </sheetData>
@@ -1246,9 +1258,9 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -1292,7 +1304,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1325,7 +1337,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1358,7 +1370,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1391,7 +1403,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1406,7 +1418,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1421,7 +1433,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1436,7 +1448,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1451,7 +1463,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1466,7 +1478,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1481,7 +1493,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1496,7 +1508,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1511,7 +1523,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1526,7 +1538,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1541,7 +1553,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1556,7 +1568,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1571,7 +1583,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1586,7 +1598,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1610,7 +1622,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1621,7 +1633,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1632,7 +1644,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1643,7 +1655,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1654,7 +1666,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1665,7 +1677,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1676,7 +1688,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1687,7 +1699,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1698,7 +1710,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1709,7 +1721,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1720,7 +1732,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1731,7 +1743,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1742,7 +1754,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1753,7 +1765,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1764,7 +1776,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1775,7 +1787,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1786,7 +1798,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1807,13 +1819,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -1857,7 +1869,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1876,7 +1888,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1895,7 +1907,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1914,7 +1926,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1933,7 +1945,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1952,7 +1964,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1971,7 +1983,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1990,7 +2002,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2009,7 +2021,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2028,7 +2040,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2047,7 +2059,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2066,7 +2078,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2085,7 +2097,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2104,7 +2116,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2123,7 +2135,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2142,7 +2154,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2161,7 +2173,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2180,7 +2192,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2193,7 +2205,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2206,7 +2218,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2219,7 +2231,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2232,7 +2244,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2245,7 +2257,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2258,7 +2270,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2271,7 +2283,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2284,7 +2296,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2297,7 +2309,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2310,7 +2322,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2323,7 +2335,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2336,7 +2348,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2349,7 +2361,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2362,7 +2374,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2375,7 +2387,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2388,7 +2400,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2401,7 +2413,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2414,7 +2426,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2427,7 +2439,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2440,7 +2452,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2453,7 +2465,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2466,7 +2478,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2479,7 +2491,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2492,7 +2504,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2505,7 +2517,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2518,7 +2530,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2543,7 +2555,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2557,9 +2569,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2586,7 +2598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2611,7 +2623,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2636,7 +2648,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2661,7 +2673,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2686,7 +2698,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2711,7 +2723,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2736,7 +2748,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2761,7 +2773,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2786,7 +2798,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2811,7 +2823,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2836,7 +2848,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2847,7 +2859,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2858,7 +2870,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2869,7 +2881,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2894,9 +2906,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2923,7 +2935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2948,7 +2960,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2973,7 +2985,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2998,7 +3010,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3023,7 +3035,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3048,7 +3060,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3073,7 +3085,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3098,7 +3110,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3109,7 +3121,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3120,7 +3132,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3137,6 +3149,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3353,36 +3380,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3405,9 +3406,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_092/ch9_092.xlsx
+++ b/exampleProblems/ch9_092/ch9_092.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_092/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="372" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64521164-4BBA-4314-8239-11F0CEF2246E}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_786907863C8D6BAEDA5961C5C0E15A10D3B2F839" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7AEDFCE-0DEC-4E4C-9289-09C619B91B5D}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="1000" windowWidth="20300" windowHeight="13620" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
     <sheet name="C13_1D" sheetId="2" r:id="rId7"/>
     <sheet name="H1_pureshift" sheetId="3" r:id="rId8"/>
+    <sheet name="NOESY" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -176,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,13 +602,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -615,7 +620,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -639,12 +644,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -671,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -700,7 +705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -729,7 +734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -758,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -787,7 +792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -816,7 +821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -845,7 +850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -874,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -885,7 +890,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -896,7 +901,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -921,9 +926,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -956,7 +961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -988,7 +993,7 @@
       <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1020,7 +1025,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1052,7 +1057,7 @@
       <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1084,7 +1089,7 @@
       <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1115,7 +1120,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1147,7 +1152,7 @@
       <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1179,7 +1184,7 @@
       <c r="K8" s="6"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1193,7 +1198,7 @@
       <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1207,7 +1212,7 @@
       <c r="K10" s="6"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1221,27 +1226,27 @@
       <c r="K11" s="9"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="J14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="J15" s="1"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:10">
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:10">
       <c r="J18" s="1"/>
     </row>
   </sheetData>
@@ -1255,12 +1260,12 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -1304,7 +1309,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1337,7 +1342,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1370,7 +1375,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1403,7 +1408,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1418,7 +1423,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1433,7 +1438,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1448,7 +1453,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1463,7 +1468,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1478,7 +1483,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1493,7 +1498,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1508,7 +1513,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1523,7 +1528,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1538,7 +1543,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1553,7 +1558,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1568,7 +1573,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1583,7 +1588,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1598,7 +1603,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1622,7 +1627,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1633,7 +1638,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1644,7 +1649,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1655,7 +1660,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1666,7 +1671,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1677,7 +1682,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1688,7 +1693,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1699,7 +1704,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1710,7 +1715,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1721,7 +1726,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1732,7 +1737,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1743,7 +1748,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1754,7 +1759,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1765,7 +1770,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1776,7 +1781,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1787,7 +1792,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1798,7 +1803,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1823,9 +1828,9 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -1869,7 +1874,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1888,7 +1893,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1907,7 +1912,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1926,7 +1931,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1945,7 +1950,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1964,7 +1969,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1983,7 +1988,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2002,7 +2007,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2021,7 +2026,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2040,7 +2045,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2059,7 +2064,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2078,7 +2083,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2097,7 +2102,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2116,7 +2121,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2135,7 +2140,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2154,7 +2159,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2173,7 +2178,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2192,7 +2197,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2205,7 +2210,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2218,7 +2223,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2231,7 +2236,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2244,7 +2249,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2257,7 +2262,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2270,7 +2275,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2283,7 +2288,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2296,7 +2301,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2309,7 +2314,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2322,7 +2327,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2335,7 +2340,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2348,7 +2353,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2361,7 +2366,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2374,7 +2379,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2387,7 +2392,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2400,7 +2405,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2413,7 +2418,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2426,7 +2431,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2439,7 +2444,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2452,7 +2457,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2465,7 +2470,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2478,7 +2483,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2491,7 +2496,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2504,7 +2509,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2517,7 +2522,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2530,7 +2535,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2550,28 +2555,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0917CD1C-20C8-DC4F-90D5-404846A735D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2598,7 +2603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2623,7 +2628,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2648,7 +2653,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2673,7 +2678,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2698,7 +2703,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2723,7 +2728,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2748,7 +2753,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2773,7 +2778,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2798,7 +2803,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2823,7 +2828,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2848,7 +2853,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2859,7 +2864,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2870,7 +2875,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2881,7 +2886,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2899,16 +2904,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2935,7 +2940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2960,7 +2965,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2985,7 +2990,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3010,7 +3015,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3035,7 +3040,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3060,7 +3065,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3085,7 +3090,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3110,7 +3115,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3121,7 +3126,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3132,7 +3137,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3148,22 +3153,61 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54BD31D-E302-9144-856D-A73542C3D7A0}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3380,32 +3424,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3422,4 +3467,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>